--- a/德福词汇/100功能动词.xlsx
+++ b/德福词汇/100功能动词.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\德语\德福词汇\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88FFD111-1968-4D6A-A54B-2E41A086855F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A72E7A6C-C3D0-4C57-B5E5-E882CB83A796}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="254">
   <si>
     <t>(einen) Blick auf etw(A) werfen</t>
   </si>
@@ -91,9 +91,6 @@
     <t>(einen) Krieg entfesseln</t>
   </si>
   <si>
-    <t>Zustimmung finden</t>
-  </si>
-  <si>
     <t>(keine) Zustimmung finden</t>
   </si>
   <si>
@@ -1378,17 +1375,6 @@
         <rFont val="等线"/>
         <family val="2"/>
       </rPr>
-      <t>得到赞同</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
       <t>未获得赞同</t>
     </r>
   </si>
@@ -2718,8 +2704,12 @@
     <t>(keine Anwendung finden</t>
   </si>
   <si>
-    <r>
-      <t>zugestimmt werden</t>
+    <t>können + Infinitiv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>nicht anerkannt werden</t>
     </r>
     <r>
       <rPr>
@@ -2734,12 +2724,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>können + Infinitiv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>nicht anerkannt werden</t>
+    <r>
+      <t>nichtunterstützt werden</t>
     </r>
     <r>
       <rPr>
@@ -2755,7 +2741,7 @@
   </si>
   <si>
     <r>
-      <t>nichtunterstützt werden</t>
+      <t>nicht angewandt werden</t>
     </r>
     <r>
       <rPr>
@@ -2770,8 +2756,108 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>nicht angewandt werden</t>
+    <t xml:space="preserve">bringen jn in Sicherheit </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">geben jm einen Kuss </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">unternehmen (einen) Ausflug </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">verüben (einen) Terroranschlag </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">treten in Kraft </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">treten außer Kraft </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">treffen (eine) Wahl </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ziehen etw(A) in Betracht</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">wecken Interesse an etw(D) / jm </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ziehen (eine) Lehre aus etw(D) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ziehen (eine) Schlussfolgerung aus etw(D) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>üben Kritik an etw(D) / jm </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">stellen Anspruch an jn </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">stellen etw(A) unter Beweis </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">stehen vor der Tür </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">stehen im Mittelpunkt </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">setzen etw(A) aufs Spiel </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">nehmen etw(A) zur Kenntnis </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sein in der Lage, etw. zu tun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">setzen alles auf eine Karte </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>berücksichtigen etw(A)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>beweisen etw(A) / belegen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aus/üben Druck auf jn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nehmen A im Rücksicht</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对……批评</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>nicht zugestimmt werden</t>
     </r>
     <r>
       <rPr>
@@ -2786,99 +2872,71 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">bringen jn in Sicherheit </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">geben jm einen Kuss </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">unternehmen (einen) Ausflug </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">verüben (einen) Terroranschlag </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">treten in Kraft </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">treten außer Kraft </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">treffen (eine) Wahl </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ziehen etw(A) in Betracht</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">wecken Interesse an etw(D) / jm </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">ziehen (eine) Lehre aus etw(D) </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">ziehen (eine) Schlussfolgerung aus etw(D) </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>üben Kritik an etw(D) / jm </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">stellen Anspruch an jn </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">stellen etw(A) unter Beweis </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">stehen vor der Tür </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">stehen im Mittelpunkt </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">setzen etw(A) aufs Spiel </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">nehmen etw(A) zur Kenntnis </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sein in der Lage, etw. zu tun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">setzen alles auf eine Karte </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>berücksichtigen etw(A)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>beweisen etw(A) / belegen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ablegen Prüfung</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>aus/üben Druck auf jn</t>
+    <t>未，获得赞同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ablegen eine Prüfung</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bringen jn ums Leben</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bringen A zum Schluss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bringen A zur Sprache</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bringen jn in Sicherheit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>geben jm einen Kuss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>verüben einen Terroranschlag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>treten außer Kraft</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nehmen einen Betracht</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wecken Interesse an D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>üben Kritik an D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stellen Anspruch an A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stehen vor der Tür</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stehen A im Mittelpunkt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>setzen A aufs Spiel</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2886,7 +2944,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>bringen</t>
+    <t>unternehmen einen Ausflug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>treten in Kraft</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>treffen eine Wahl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ziehen eine Lehre aus D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ziehen eine Schlussfolgerung aus D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stellen A unter Beweis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sein in der Lage ,etw zu tun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nehmen A zur Kenntnis</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2929,12 +3015,18 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -2958,10 +3050,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3242,257 +3337,260 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{642DCE28-97D5-4679-BEBD-F88BB4027CD4}">
-  <dimension ref="A1:C101"/>
+  <dimension ref="A1:D100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="52" style="1" customWidth="1"/>
     <col min="2" max="2" width="65.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="72.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52.5546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="40.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B4" s="1" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C6" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B7" s="1" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B8" s="1" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B9" s="1" t="s">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B10" s="1" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B11" s="1" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B12" s="1" t="s">
+      <c r="C14" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B13" s="1" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>211</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
-        <v>93</v>
+      <c r="A18" s="3" t="s">
+        <v>226</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>221</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="25" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>0</v>
@@ -3500,7 +3598,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>1</v>
@@ -3508,7 +3606,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>2</v>
@@ -3516,7 +3614,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>3</v>
@@ -3524,7 +3622,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>4</v>
@@ -3532,7 +3630,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>5</v>
@@ -3540,7 +3638,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>6</v>
@@ -3548,18 +3646,18 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>8</v>
@@ -3567,29 +3665,29 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>11</v>
@@ -3597,7 +3695,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>12</v>
@@ -3605,7 +3703,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>13</v>
@@ -3613,7 +3711,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>14</v>
@@ -3621,7 +3719,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>15</v>
@@ -3629,7 +3727,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>16</v>
@@ -3637,7 +3735,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>17</v>
@@ -3645,7 +3743,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>18</v>
@@ -3653,7 +3751,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>19</v>
@@ -3661,56 +3759,53 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="18.600000000000001" x14ac:dyDescent="0.35">
-      <c r="A47" s="1" t="s">
-        <v>122</v>
+      <c r="A47" s="3" t="s">
+        <v>228</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="18.600000000000001" x14ac:dyDescent="0.35">
-      <c r="A49" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A50" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>25</v>
@@ -3718,97 +3813,97 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="C52" s="1" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C54" s="1" t="s">
-        <v>189</v>
-      </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="C55" s="1" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C58" s="1" t="s">
-        <v>192</v>
-      </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="C59" s="1" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C60" s="1" t="s">
-        <v>193</v>
-      </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>35</v>
@@ -3816,7 +3911,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>36</v>
@@ -3824,7 +3919,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>37</v>
@@ -3832,7 +3927,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>38</v>
@@ -3840,7 +3935,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>39</v>
@@ -3848,26 +3943,26 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="C66" s="1" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C67" s="1" t="s">
-        <v>194</v>
-      </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>42</v>
@@ -3875,26 +3970,26 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="C69" s="1" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C70" s="1" t="s">
-        <v>195</v>
-      </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>45</v>
@@ -3902,7 +3997,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>46</v>
@@ -3910,7 +4005,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>47</v>
@@ -3918,7 +4013,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>48</v>
@@ -3926,7 +4021,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>49</v>
@@ -3934,7 +4029,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>50</v>
@@ -3942,7 +4037,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>51</v>
@@ -3950,37 +4045,37 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C78" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A80" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B80" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="18.600000000000001" x14ac:dyDescent="0.35">
-      <c r="A80" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>54</v>
@@ -3988,7 +4083,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>55</v>
@@ -3996,7 +4091,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>56</v>
@@ -4004,7 +4099,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>57</v>
@@ -4012,7 +4107,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>58</v>
@@ -4020,7 +4115,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
-        <v>160</v>
+        <v>99</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>59</v>
@@ -4028,7 +4123,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
-        <v>100</v>
+        <v>159</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>60</v>
@@ -4036,7 +4131,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>61</v>
@@ -4044,7 +4139,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>62</v>
@@ -4052,7 +4147,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>63</v>
@@ -4060,7 +4155,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>64</v>
@@ -4068,7 +4163,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>65</v>
@@ -4076,7 +4171,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>66</v>
@@ -4084,7 +4179,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>67</v>
@@ -4092,7 +4187,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>68</v>
@@ -4100,7 +4195,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>69</v>
@@ -4108,1007 +4203,1026 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C97" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A99" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="B99" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" ht="18.600000000000001" x14ac:dyDescent="0.35">
-      <c r="A99" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
-        <v>173</v>
+        <v>114</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>72</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A101" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3220F3AC-27E9-43CC-9CA6-59077FD321E8}">
-  <dimension ref="A1:C203"/>
+  <dimension ref="A1:D100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="52" style="1" customWidth="1"/>
-    <col min="2" max="2" width="65.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="72.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="52" style="1" customWidth="1"/>
+    <col min="3" max="3" width="65.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="72.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+      <c r="C4" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="C5" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C6" s="1" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>1</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>1</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>0</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>1</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>0</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>0</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>0</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>0</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <v>0</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C8" s="1" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <v>0</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C18" s="1" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <v>1</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <v>0</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C19" s="1" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
+        <v>0</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
+        <v>0</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
+        <v>1</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
+        <v>0</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
+        <v>0</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
+        <v>0</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
+        <v>0</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
+        <v>0</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="1">
+        <v>0</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="1">
+        <v>0</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" s="1">
+        <v>0</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="1">
+        <v>0</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C21" s="1" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" s="1">
+        <v>0</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" s="1">
+        <v>0</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" s="1">
+        <v>0</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" s="1">
+        <v>0</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" s="1">
+        <v>0</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" s="1">
+        <v>0</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" s="1">
+        <v>0</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" s="1">
+        <v>0</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" s="1">
+        <v>0</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" s="1">
+        <v>0</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" s="1">
+        <v>0</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" s="1">
+        <v>0</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" s="1">
+        <v>0</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47" s="1">
+        <v>0</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="18.600000000000001" x14ac:dyDescent="0.35">
+      <c r="A48" s="1">
+        <v>0</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" s="1">
+        <v>0</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50" s="1">
+        <v>0</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" s="1">
+        <v>0</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52" s="1">
+        <v>0</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53" s="1">
+        <v>0</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A54" s="1">
+        <v>0</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55" s="1">
+        <v>0</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A56" s="1">
+        <v>0</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A57" s="1">
+        <v>0</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A58" s="1">
+        <v>0</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A59" s="1">
+        <v>0</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A60" s="1">
+        <v>0</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A61" s="1">
+        <v>0</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A62" s="1">
+        <v>0</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A63" s="1">
+        <v>0</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A64" s="1">
+        <v>0</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A65" s="1">
+        <v>0</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A66" s="1">
+        <v>0</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A67" s="1">
+        <v>0</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A68" s="1">
+        <v>0</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A69" s="1">
+        <v>0</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A70" s="1">
+        <v>0</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A71" s="1">
+        <v>0</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A72" s="1">
+        <v>0</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A73" s="1">
+        <v>0</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A74" s="1">
+        <v>0</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A75" s="1">
+        <v>0</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A76" s="1">
+        <v>0</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A77" s="1">
+        <v>0</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A78" s="1">
+        <v>0</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="18.600000000000001" x14ac:dyDescent="0.35">
+      <c r="A79" s="1">
+        <v>0</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A80" s="1">
+        <v>0</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81" s="1">
+        <v>0</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82" s="1">
+        <v>0</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83" s="1">
+        <v>0</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84" s="1">
+        <v>0</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85" s="1">
+        <v>0</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A86" s="1">
+        <v>0</v>
+      </c>
+      <c r="B86" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="25" spans="1:3" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A25" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C25" s="2" t="s">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A87" s="1">
+        <v>0</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A88" s="1">
+        <v>0</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A89" s="1">
+        <v>0</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A90" s="1">
+        <v>0</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A91" s="1">
+        <v>0</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A92" s="1">
+        <v>0</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A93" s="1">
+        <v>0</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A94" s="1">
+        <v>0</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A95" s="1">
+        <v>0</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A96" s="1">
+        <v>0</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A97" s="1">
+        <v>0</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="18.600000000000001" x14ac:dyDescent="0.35">
+      <c r="A98" s="1">
+        <v>0</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D98" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A26" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A27" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A28" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A29" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A30" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A31" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A32" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A33" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A34" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A35" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A36" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A37" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A38" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A39" s="1" t="s">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A99" s="1">
+        <v>0</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A100" s="1">
+        <v>0</v>
+      </c>
+      <c r="B100" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A40" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A41" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A42" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A43" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A44" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A45" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A46" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="18.600000000000001" x14ac:dyDescent="0.35">
-      <c r="A47" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A48" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="18.600000000000001" x14ac:dyDescent="0.35">
-      <c r="A49" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A50" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A51" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A52" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A53" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A54" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A55" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A56" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A57" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A58" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A59" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A60" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A61" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A62" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A63" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A64" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A65" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A66" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A67" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A68" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A69" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A70" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A71" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A72" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A73" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A74" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A75" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A76" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A77" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A78" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A79" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="18.600000000000001" x14ac:dyDescent="0.35">
-      <c r="A80" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A81" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A82" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A83" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A84" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A85" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A86" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A87" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A88" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A89" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A90" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A91" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A92" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A93" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A94" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A95" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A96" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A97" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A98" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" ht="18.600000000000001" x14ac:dyDescent="0.35">
-      <c r="A99" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A100" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A101" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="103" spans="1:3" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="104" spans="1:3" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="105" spans="1:3" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="106" spans="1:3" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="107" spans="1:3" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="108" spans="1:3" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="109" spans="1:3" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="110" spans="1:3" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="111" spans="1:3" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="112" spans="1:3" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="113" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="114" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="115" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="116" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="117" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="118" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="119" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="120" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="121" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="122" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="123" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="124" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="125" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="126" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="127" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="128" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="129" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="130" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="131" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="132" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="133" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="134" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="135" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="136" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="137" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="138" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="139" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="140" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="141" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="142" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="143" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="144" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="145" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="146" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="147" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="148" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="149" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="150" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="151" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="152" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="153" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="154" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="155" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="156" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="157" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="158" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="159" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="160" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="161" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="162" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="163" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="164" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="165" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="166" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="167" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="168" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="169" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="170" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="171" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="172" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="173" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="174" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="175" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="176" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="177" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="178" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="179" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="180" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="181" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="182" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="183" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="184" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="185" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="186" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="187" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="188" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="189" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="190" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="191" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="192" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="193" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="194" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="195" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="196" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="197" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="198" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="199" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="200" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="201" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="202" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="203" ht="18" x14ac:dyDescent="0.35"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/德福词汇/100功能动词.xlsx
+++ b/德福词汇/100功能动词.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\德语\德福词汇\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A72E7A6C-C3D0-4C57-B5E5-E882CB83A796}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5629F93C-BAE6-4C95-80DC-E6A3B1C080B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="348" yWindow="1968" windowWidth="9384" windowHeight="9624" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -26,37 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="254">
-  <si>
-    <t>(einen) Blick auf etw(A) werfen</t>
-  </si>
-  <si>
-    <t>(einen) Arbeitsplatz schaffen</t>
-  </si>
-  <si>
-    <t>(eine) Prüfung bestehen</t>
-  </si>
-  <si>
-    <t>jm Dank sagen</t>
-  </si>
-  <si>
-    <t>etw(A) zur Stellung nehmen</t>
-  </si>
-  <si>
-    <t>etw(A) in Kauf nehmen</t>
-  </si>
-  <si>
-    <t>Fortschritt(e) erzielen</t>
-  </si>
-  <si>
-    <t>(einen) Beitrag zu etw(D) leisten</t>
-  </si>
-  <si>
-    <t>Wert auf etw(A) legen</t>
-  </si>
-  <si>
-    <t>ums Leben kommen</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="264">
   <si>
     <t>etw(A) zum Ausdruck bringen</t>
   </si>
@@ -2973,6 +2943,86 @@
   </si>
   <si>
     <t>nehmen A zur Kenntnis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">werfen (einen) Blick auf etw(A) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">schaffen (einen) Arbeitsplatz </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">bestehen (eine) Prüfung </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">sagen jm Dank </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">nehmen etw(A) zur Stellung </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">nehmen etw(A) in Kauf </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">erzielen Fortschritt(e) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">leisten (einen) Beitrag zu etw(D) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">legen Wert auf etw(A) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">kommen ums Leben </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>einen Blick auf A werfen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eine Prüfung bestehen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nehmen A zur Stellung</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leisten Beitrag zu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>legen Wert auf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kommen ums Leben</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>einen Arbeitsplatz schaffen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sagen jm Dank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nehmen A in Kauf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fortschritt erzielen</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3339,8 +3389,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{642DCE28-97D5-4679-BEBD-F88BB4027CD4}">
   <dimension ref="A1:D100"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -3354,889 +3404,889 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
     </row>
     <row r="25" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>0</v>
+        <v>244</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>1</v>
+        <v>245</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>2</v>
+        <v>246</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>3</v>
+        <v>247</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>4</v>
+        <v>248</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>5</v>
+        <v>249</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>6</v>
+        <v>250</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>7</v>
+        <v>251</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>183</v>
+        <v>252</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
     </row>
     <row r="49" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="4" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -4250,8 +4300,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3220F3AC-27E9-43CC-9CA6-59077FD321E8}">
   <dimension ref="A1:D100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -4266,16 +4316,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -4283,10 +4333,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -4294,10 +4344,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -4305,13 +4355,13 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -4319,10 +4369,10 @@
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -4330,13 +4380,13 @@
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -4344,10 +4394,10 @@
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -4355,13 +4405,13 @@
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -4369,10 +4419,10 @@
         <v>1</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
@@ -4380,10 +4430,10 @@
         <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -4391,10 +4441,10 @@
         <v>1</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -4402,10 +4452,10 @@
         <v>0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
@@ -4413,10 +4463,10 @@
         <v>1</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
@@ -4424,13 +4474,13 @@
         <v>0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
@@ -4438,10 +4488,10 @@
         <v>0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
@@ -4449,10 +4499,10 @@
         <v>0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
@@ -4460,10 +4510,10 @@
         <v>0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
@@ -4471,13 +4521,13 @@
         <v>0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
@@ -4485,13 +4535,13 @@
         <v>0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
@@ -4499,13 +4549,13 @@
         <v>1</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
@@ -4513,13 +4563,13 @@
         <v>0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
@@ -4527,10 +4577,10 @@
         <v>0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
@@ -4538,13 +4588,13 @@
         <v>0</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
@@ -4552,10 +4602,10 @@
         <v>1</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
     </row>
     <row r="25" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -4563,13 +4613,13 @@
         <v>0</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
@@ -4577,15 +4627,21 @@
         <v>0</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>100</v>
+        <v>90</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>101</v>
+        <v>91</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
@@ -4593,15 +4649,21 @@
         <v>0</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>102</v>
+        <v>92</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>103</v>
+        <v>93</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
@@ -4609,15 +4671,21 @@
         <v>0</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>104</v>
+        <v>94</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>105</v>
+        <v>95</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
@@ -4625,7 +4693,10 @@
         <v>0</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>106</v>
+        <v>96</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
@@ -4633,10 +4704,13 @@
         <v>0</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>107</v>
+        <v>97</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>257</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
@@ -4644,18 +4718,24 @@
         <v>0</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" s="1">
-        <v>0</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>183</v>
+        <v>98</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="2">
+        <v>0</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
@@ -4663,10 +4743,10 @@
         <v>0</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
@@ -4674,7 +4754,7 @@
         <v>0</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
@@ -4682,7 +4762,7 @@
         <v>0</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
@@ -4690,7 +4770,7 @@
         <v>0</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
@@ -4698,7 +4778,7 @@
         <v>0</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
@@ -4706,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
@@ -4714,7 +4794,7 @@
         <v>0</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
@@ -4722,7 +4802,7 @@
         <v>0</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
@@ -4730,7 +4810,7 @@
         <v>0</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
@@ -4738,7 +4818,7 @@
         <v>0</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
@@ -4746,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
@@ -4754,10 +4834,10 @@
         <v>0</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="18.600000000000001" x14ac:dyDescent="0.35">
@@ -4765,10 +4845,10 @@
         <v>0</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
@@ -4776,15 +4856,15 @@
         <v>0</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A50" s="1">
-        <v>0</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>124</v>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="2">
+        <v>0</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
@@ -4792,7 +4872,7 @@
         <v>0</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
@@ -4800,10 +4880,10 @@
         <v>0</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
@@ -4811,10 +4891,10 @@
         <v>0</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
@@ -4822,7 +4902,7 @@
         <v>0</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
@@ -4830,10 +4910,10 @@
         <v>0</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
@@ -4841,10 +4921,10 @@
         <v>0</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
@@ -4852,10 +4932,10 @@
         <v>0</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
@@ -4863,7 +4943,7 @@
         <v>0</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
@@ -4871,10 +4951,10 @@
         <v>0</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
@@ -4882,7 +4962,7 @@
         <v>0</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
@@ -4890,7 +4970,7 @@
         <v>0</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
@@ -4898,7 +4978,7 @@
         <v>0</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
@@ -4906,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
@@ -4914,7 +4994,7 @@
         <v>0</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
@@ -4922,7 +5002,7 @@
         <v>0</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
@@ -4930,10 +5010,10 @@
         <v>0</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
@@ -4941,7 +5021,7 @@
         <v>0</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
@@ -4949,7 +5029,7 @@
         <v>0</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
@@ -4957,10 +5037,10 @@
         <v>0</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
@@ -4968,7 +5048,7 @@
         <v>0</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
@@ -4976,7 +5056,7 @@
         <v>0</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
@@ -4984,7 +5064,7 @@
         <v>0</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
@@ -4992,7 +5072,7 @@
         <v>0</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
@@ -5000,7 +5080,7 @@
         <v>0</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
@@ -5008,7 +5088,7 @@
         <v>0</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
@@ -5016,7 +5096,7 @@
         <v>0</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
@@ -5024,7 +5104,7 @@
         <v>0</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
@@ -5032,10 +5112,10 @@
         <v>0</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="18.600000000000001" x14ac:dyDescent="0.35">
@@ -5043,10 +5123,10 @@
         <v>0</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
@@ -5054,7 +5134,7 @@
         <v>0</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
@@ -5062,7 +5142,7 @@
         <v>0</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
@@ -5070,7 +5150,7 @@
         <v>0</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
@@ -5078,7 +5158,7 @@
         <v>0</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
@@ -5086,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
@@ -5094,7 +5174,7 @@
         <v>0</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
@@ -5102,7 +5182,7 @@
         <v>0</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
@@ -5110,7 +5190,7 @@
         <v>0</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
@@ -5118,7 +5198,7 @@
         <v>0</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
@@ -5126,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
@@ -5134,7 +5214,7 @@
         <v>0</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
@@ -5142,7 +5222,7 @@
         <v>0</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
@@ -5150,7 +5230,7 @@
         <v>0</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
@@ -5158,7 +5238,7 @@
         <v>0</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
@@ -5166,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
@@ -5174,7 +5254,7 @@
         <v>0</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
@@ -5182,7 +5262,7 @@
         <v>0</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.35">
@@ -5190,10 +5270,10 @@
         <v>0</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="18.600000000000001" x14ac:dyDescent="0.35">
@@ -5201,10 +5281,10 @@
         <v>0</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.35">
@@ -5212,7 +5292,7 @@
         <v>0</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.35">
@@ -5220,7 +5300,7 @@
         <v>0</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/德福词汇/100功能动词.xlsx
+++ b/德福词汇/100功能动词.xlsx
@@ -1,32 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11017"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\德语\德福词汇\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5629F93C-BAE6-4C95-80DC-E6A3B1C080B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="142" documentId="13_ncr:1_{5629F93C-BAE6-4C95-80DC-E6A3B1C080B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5FBF0538-4CD9-C547-A2F5-DA65246F70EB}"/>
   <bookViews>
     <workbookView minimized="1" xWindow="348" yWindow="1968" windowWidth="9384" windowHeight="9624" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="中德" sheetId="2" r:id="rId1"/>
+    <sheet name="德中" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="271">
   <si>
     <t>etw(A) zum Ausdruck bringen</t>
   </si>
@@ -678,17 +686,6 @@
         <rFont val="等线"/>
         <family val="2"/>
       </rPr>
-      <t>批评</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
       <t>对</t>
     </r>
     <r>
@@ -1335,17 +1332,6 @@
         <family val="2"/>
       </rPr>
       <t>战争</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>未获得赞同</t>
     </r>
   </si>
   <si>
@@ -2635,9 +2621,6 @@
     <t>aus/drücken</t>
   </si>
   <si>
-    <t>nicht zugestimmt werden</t>
-  </si>
-  <si>
     <t>erwägen etw(A)</t>
   </si>
   <si>
@@ -2665,13 +2648,7 @@
     <t>unterrichten</t>
   </si>
   <si>
-    <t>(keine Unterstützung finden</t>
-  </si>
-  <si>
     <t>kontrollieren etw(A)</t>
-  </si>
-  <si>
-    <t>(keine Anwendung finden</t>
   </si>
   <si>
     <t>können + Infinitiv</t>
@@ -2806,10 +2783,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>berücksichtigen etw(A)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>beweisen etw(A) / belegen</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2818,10 +2791,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>nehmen A im Rücksicht</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>对……批评</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2846,106 +2815,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ablegen eine Prüfung</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bringen jn ums Leben</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bringen A zum Schluss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bringen A zur Sprache</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bringen jn in Sicherheit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>geben jm einen Kuss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>verüben einen Terroranschlag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>treten außer Kraft</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nehmen einen Betracht</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wecken Interesse an D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>üben Kritik an D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stellen Anspruch an A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stehen vor der Tür</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stehen A im Mittelpunkt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>setzen A aufs Spiel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ausüben Druck auf jn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>unternehmen einen Ausflug</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>treten in Kraft</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>treffen eine Wahl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ziehen eine Lehre aus D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ziehen eine Schlussfolgerung aus D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stellen A unter Beweis</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sein in der Lage ,etw zu tun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nehmen A zur Kenntnis</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">werfen (einen) Blick auf etw(A) </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2986,44 +2855,148 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>einen Blick auf A werfen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>eine Prüfung bestehen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>(keine) Unterstützung finden</t>
+  </si>
+  <si>
+    <t>(keine) Anwendung finden</t>
+  </si>
+  <si>
+    <t>ablegen prüfung</t>
+  </si>
+  <si>
+    <t>ausüben Druck auf</t>
+  </si>
+  <si>
+    <t>bringen jn ums Leben</t>
+  </si>
+  <si>
+    <t>bringen A zum Schluss</t>
+  </si>
+  <si>
+    <t>bringen A zur Sprache</t>
+  </si>
+  <si>
+    <t>bringen jn in Sicherheit</t>
+  </si>
+  <si>
+    <t>geben jm einen Kuss</t>
+  </si>
+  <si>
+    <t>unternehmen einen Ausflug</t>
+  </si>
+  <si>
+    <t>verüben Terroanschlag</t>
+  </si>
+  <si>
+    <t>treten in Kraft</t>
+  </si>
+  <si>
+    <t>treten außer Kraft</t>
+  </si>
+  <si>
+    <t>treffen Wahl</t>
+  </si>
+  <si>
+    <t>ziehen A in Betracht</t>
+  </si>
+  <si>
+    <t>wecken Interesse an D</t>
+  </si>
+  <si>
+    <t>ziehen Lehre aus D</t>
+  </si>
+  <si>
+    <t>ziehen Schlussfolgerung aus</t>
+  </si>
+  <si>
+    <t>üben Kritik an D</t>
+  </si>
+  <si>
+    <t>stellen Anspruch an jn</t>
+  </si>
+  <si>
+    <t>stellen A unter Beweis</t>
+  </si>
+  <si>
+    <t>stehen vor der Tür</t>
+  </si>
+  <si>
+    <t>stehen im Mittelpunkt</t>
+  </si>
+  <si>
+    <t>setzen A aufs Spiel</t>
+  </si>
+  <si>
+    <t>nehmen A zur Kenntnis</t>
+  </si>
+  <si>
+    <t>sein in der Lage,zu tun</t>
+  </si>
+  <si>
+    <t>werfen Blick auf A</t>
+  </si>
+  <si>
+    <t>schaffen Arbeitsplatz</t>
+  </si>
+  <si>
+    <t>bestehen Prüfung</t>
+  </si>
+  <si>
+    <t>sagen jm Dank</t>
   </si>
   <si>
     <t>nehmen A zur Stellung</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>leisten Beitrag zu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>legen Wert auf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nehmen A in Kauf</t>
+  </si>
+  <si>
+    <t>aushalten</t>
+  </si>
+  <si>
+    <t>erzielen Fortschritt</t>
+  </si>
+  <si>
+    <t>leisten Beitrag zu D</t>
+  </si>
+  <si>
+    <t>legen Wert auf A</t>
   </si>
   <si>
     <t>kommen ums Leben</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>einen Arbeitsplatz schaffen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sagen jm Dank</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nehmen A in Kauf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fortschritt erzielen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zum Ausdruck bringen</t>
+  </si>
+  <si>
+    <t>Vortrag über halten</t>
+  </si>
+  <si>
+    <t>Rede halten</t>
+  </si>
+  <si>
+    <t>D Einhalt gebieten</t>
+  </si>
+  <si>
+    <t>Gespräch führen</t>
+  </si>
+  <si>
+    <t>Prozess gegen jn führen</t>
+  </si>
+  <si>
+    <t>Krieg entfesseln</t>
+  </si>
+  <si>
+    <t>Zustimmung finden</t>
+  </si>
+  <si>
+    <t>Anerkennung finden</t>
+  </si>
+  <si>
+    <t>Rolle spielen</t>
+  </si>
+  <si>
+    <t>Versprechen einlösen</t>
   </si>
 </sst>
 </file>
@@ -3100,13 +3073,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3387,905 +3361,1350 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{642DCE28-97D5-4679-BEBD-F88BB4027CD4}">
-  <dimension ref="A1:D100"/>
+  <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.92578125" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52" style="1" customWidth="1"/>
-    <col min="2" max="2" width="65.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="52.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="40.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="8.92578125" style="1"/>
+    <col min="2" max="2" width="52.0234375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="36.36328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="65.87109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="60.69140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.92578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>0</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>0</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>0</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>0</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>0</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>0</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>0</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>0</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>0</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>0</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>0</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>0</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>0</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>0</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>0</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>0</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>0</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>0</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="D14" s="1" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>0</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>0</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="C19" s="1" t="s">
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>0</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>0</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>0</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C21" s="1" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>0</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>0</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="C23" s="1" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>0</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>0</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>0</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>0</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>0</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>0</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>0</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>0</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>0</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>0</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>0</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>0</v>
+      </c>
+      <c r="B47" s="6" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
+      <c r="C47" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>0</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>0</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>0</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>0</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>0</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>0</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>0</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>0</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>0</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>0</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>0</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>0</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>0</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>0</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>0</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>0</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>0</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>0</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>0</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>0</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>0</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>0</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>0</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>0</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>0</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>0</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>0</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>0</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>0</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>0</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>0</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>0</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>0</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>0</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>0</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>0</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>0</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>0</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>0</v>
+      </c>
+      <c r="B86" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A39" s="1" t="s">
+      <c r="D86" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>0</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>0</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>0</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>0</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>0</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>0</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>0</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>0</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>0</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>0</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>0</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>0</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>0</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>0</v>
+      </c>
+      <c r="B100" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A40" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A41" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A42" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A43" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A44" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A45" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A46" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="18.600000000000001" x14ac:dyDescent="0.35">
-      <c r="A47" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="18.600000000000001" x14ac:dyDescent="0.35">
-      <c r="A48" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A51" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A52" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A53" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A54" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A55" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A56" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A57" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A58" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A59" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A60" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A61" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A62" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A63" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A64" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A65" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A66" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A67" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A68" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A69" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A70" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A71" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A72" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A73" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A74" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A75" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A76" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A77" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A78" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="18.600000000000001" x14ac:dyDescent="0.35">
-      <c r="A79" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A80" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A81" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A82" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A83" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A84" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A85" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A86" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A87" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A88" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A89" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A90" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A91" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A92" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A93" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A94" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A95" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A96" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A97" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="18.600000000000001" x14ac:dyDescent="0.35">
-      <c r="A98" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A99" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A100" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B100" s="1" t="s">
+      <c r="D100" s="1" t="s">
         <v>62</v>
       </c>
     </row>
@@ -4297,1014 +4716,1209 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3220F3AC-27E9-43CC-9CA6-59077FD321E8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9722CAB-FD82-3C42-9BD5-DEE67948ED8C}">
   <dimension ref="A1:D100"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+    <sheetView zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.92578125" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="52" style="1" customWidth="1"/>
-    <col min="3" max="3" width="65.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="72.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="8.92578125" style="1"/>
+    <col min="2" max="2" width="65.87109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="60.69140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.0234375" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.92578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>219</v>
-      </c>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+        <v>191</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B3" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>69</v>
+        <v>203</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+        <v>206</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+        <v>216</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>225</v>
+        <v>5</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>0</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+        <v>173</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>77</v>
+      <c r="B13" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+        <v>174</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>228</v>
+        <v>177</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>230</v>
+        <v>29</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>231</v>
+        <v>180</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>241</v>
+      <c r="B20" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>232</v>
+        <v>36</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>234</v>
+        <v>39</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>242</v>
+        <v>44</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>1</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+        <v>48</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+        <v>49</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>1</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>1</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>0</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>0</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>0</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>0</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>0</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>0</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>0</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>0</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>0</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>0</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>0</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>0</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>0</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>0</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>0</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>0</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>0</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>0</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>0</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>0</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>0</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>0</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>0</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>0</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>0</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D58" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" s="1">
-        <v>0</v>
-      </c>
-      <c r="B32" s="1" t="s">
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>0</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D59" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" s="1">
-        <v>0</v>
-      </c>
-      <c r="B33" s="1" t="s">
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>0</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D60" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="D33" s="1" t="s">
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>0</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>0</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" s="1">
-        <v>0</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="2">
-        <v>0</v>
-      </c>
-      <c r="B35" s="2" t="s">
+      <c r="D62" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" s="1">
-        <v>0</v>
-      </c>
-      <c r="B36" s="1" t="s">
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>0</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D63" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" s="1">
-        <v>0</v>
-      </c>
-      <c r="B37" s="1" t="s">
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>0</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D64" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" s="1">
-        <v>0</v>
-      </c>
-      <c r="B38" s="1" t="s">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>0</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D65" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39" s="1">
-        <v>0</v>
-      </c>
-      <c r="B39" s="1" t="s">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>0</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D66" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" s="1">
-        <v>0</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41" s="1">
-        <v>0</v>
-      </c>
-      <c r="B41" s="1" t="s">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>0</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42" s="1">
-        <v>0</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43" s="1">
-        <v>0</v>
-      </c>
-      <c r="B43" s="1" t="s">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>0</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D68" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44" s="1">
-        <v>0</v>
-      </c>
-      <c r="B44" s="1" t="s">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>0</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A45" s="1">
-        <v>0</v>
-      </c>
-      <c r="B45" s="1" t="s">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>0</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D70" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" s="1">
-        <v>0</v>
-      </c>
-      <c r="B46" s="1" t="s">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>0</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>0</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D72" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A47" s="1">
-        <v>0</v>
-      </c>
-      <c r="B47" s="1" t="s">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>0</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="D47" s="1" t="s">
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>0</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>0</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" ht="18.600000000000001" x14ac:dyDescent="0.35">
-      <c r="A48" s="1">
-        <v>0</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" s="1">
-        <v>0</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="2">
-        <v>0</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A51" s="1">
-        <v>0</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A52" s="1">
-        <v>0</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D52" s="1" t="s">
+      <c r="D75" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>0</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A53" s="1">
-        <v>0</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A54" s="1">
-        <v>0</v>
-      </c>
-      <c r="B54" s="1" t="s">
+      <c r="D76" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A55" s="1">
-        <v>0</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D55" s="1" t="s">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>0</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>0</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C78" s="1" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A56" s="1">
-        <v>0</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D56" s="1" t="s">
+      <c r="D78" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>0</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>0</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>0</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C81" s="1" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A57" s="1">
-        <v>0</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A58" s="1">
-        <v>0</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A59" s="1">
-        <v>0</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D59" s="1" t="s">
+      <c r="D81" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>0</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>0</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>0</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>0</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>0</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>0</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C87" s="1" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A60" s="1">
-        <v>0</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A61" s="1">
-        <v>0</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A62" s="1">
-        <v>0</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A63" s="1">
-        <v>0</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A64" s="1">
-        <v>0</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A65" s="1">
-        <v>0</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A66" s="1">
-        <v>0</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D66" s="1" t="s">
+      <c r="D87" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>0</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>0</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>0</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>0</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>0</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>0</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>0</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>0</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>0</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>0</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>0</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C98" s="1" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A67" s="1">
-        <v>0</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A68" s="1">
-        <v>0</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A69" s="1">
-        <v>0</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A70" s="1">
-        <v>0</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A71" s="1">
-        <v>0</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A72" s="1">
-        <v>0</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A73" s="1">
-        <v>0</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A74" s="1">
-        <v>0</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A75" s="1">
-        <v>0</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A76" s="1">
-        <v>0</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A77" s="1">
-        <v>0</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A78" s="1">
-        <v>0</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="18.600000000000001" x14ac:dyDescent="0.35">
-      <c r="A79" s="1">
-        <v>0</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A80" s="1">
-        <v>0</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A81" s="1">
-        <v>0</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A82" s="1">
-        <v>0</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A83" s="1">
-        <v>0</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A84" s="1">
-        <v>0</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A85" s="1">
-        <v>0</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A86" s="1">
-        <v>0</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A87" s="1">
-        <v>0</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A88" s="1">
-        <v>0</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A89" s="1">
-        <v>0</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A90" s="1">
-        <v>0</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A91" s="1">
-        <v>0</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A92" s="1">
-        <v>0</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A93" s="1">
-        <v>0</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A94" s="1">
-        <v>0</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A95" s="1">
-        <v>0</v>
-      </c>
-      <c r="B95" s="1" t="s">
+      <c r="D98" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A96" s="1">
-        <v>0</v>
-      </c>
-      <c r="B96" s="1" t="s">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>0</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D99" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A97" s="1">
-        <v>0</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" ht="18.600000000000001" x14ac:dyDescent="0.35">
-      <c r="A98" s="1">
-        <v>0</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A99" s="1">
-        <v>0</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>0</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>104</v>
+        <v>62</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:XFD100">
+    <sortCondition descending="1" ref="A2:A100"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>